--- a/medicine/Psychotrope/Muscat_blanc_à_petits_grains/Muscat_blanc_à_petits_grains.xlsx
+++ b/medicine/Psychotrope/Muscat_blanc_à_petits_grains/Muscat_blanc_à_petits_grains.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Muscat_blanc_%C3%A0_petits_grains</t>
+          <t>Muscat_blanc_à_petits_grains</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le muscat blanc à petits grains est un cépage grec blanc.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Muscat_blanc_%C3%A0_petits_grains</t>
+          <t>Muscat_blanc_à_petits_grains</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Origine et répartition géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce cépage de cuve est d'origine grecque. Il est cultivé dans la plupart des pays viticoles de la Méditerranée depuis l'antiquité.
 Les plantations les plus importantes connues sont en :
@@ -542,7 +556,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Muscat_blanc_%C3%A0_petits_grains</t>
+          <t>Muscat_blanc_à_petits_grains</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -560,7 +574,9 @@
           <t>Caractères ampélographiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Extrémité du jeune rameau duveteux blanc à liseré carminé.
 Jeunes feuilles aranéeuses, brillantes et très bronzées.
@@ -574,7 +590,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Muscat_blanc_%C3%A0_petits_grains</t>
+          <t>Muscat_blanc_à_petits_grains</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -592,7 +608,9 @@
           <t>Aptitudes culturales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce cépage débourre précocement et sa maturité est de deuxième époque : 2 semaines et demie après le chasselas.
 C'est un cépage moyennement vigoureux. Son débourrement précoce l'expose aux gelées printanières. Il est très sensible au court-noué, à l'oïdium, au mildiou, à la pourriture grise, aux vers de la grappe et aux guêpes.
@@ -606,7 +624,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Muscat_blanc_%C3%A0_petits_grains</t>
+          <t>Muscat_blanc_à_petits_grains</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -624,7 +642,9 @@
           <t>Potentiel technologique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les grappes et les baies sont de taille moyenne. La grappe est cylindrique, longue, étroite et compacte. La chair des baies est ferme, juteuse, très sucrée. Le cépage possède une saveur aromatique musquée.
 </t>
@@ -637,7 +657,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Muscat_blanc_%C3%A0_petits_grains</t>
+          <t>Muscat_blanc_à_petits_grains</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -655,7 +675,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscat blanc à petits grains est aussi connu sous les noms suivants : 
 bela dinka
